--- a/2_immune receptors distribution/Distribution of TCR Combinations/cluster_summary.xlsx
+++ b/2_immune receptors distribution/Distribution of TCR Combinations/cluster_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esmaeil\CeliacProject\CeliacProject\2_immune receptors distribution\Distribution of TCR Combinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF0356D-21DA-4877-9A21-E83B207CF57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A7882-072F-4576-BF3C-C21117601196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,10 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,14 +525,13 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="2"/>
     <col min="10" max="10" width="11.42578125" style="1"/>
     <col min="21" max="21" width="17.140625" customWidth="1"/>
   </cols>
@@ -563,7 +561,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -628,7 +626,7 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" s="1">
@@ -693,7 +691,7 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -758,7 +756,7 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="1">
@@ -823,7 +821,7 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -888,7 +886,7 @@
       <c r="H6">
         <v>1134</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>810</v>
       </c>
       <c r="J6" s="1">
@@ -953,7 +951,7 @@
       <c r="H7">
         <v>131</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" s="1">
@@ -1018,7 +1016,7 @@
       <c r="H8">
         <v>950</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>172</v>
       </c>
       <c r="J8" s="1">
@@ -1083,7 +1081,7 @@
       <c r="H9">
         <v>1345</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>544</v>
       </c>
       <c r="J9" s="1">
@@ -1148,7 +1146,7 @@
       <c r="H10">
         <v>611</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>115</v>
       </c>
       <c r="J10" s="1">
@@ -1213,7 +1211,7 @@
       <c r="H11">
         <v>800</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>33</v>
       </c>
       <c r="J11" s="1">
@@ -1278,7 +1276,7 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="1">
@@ -1343,7 +1341,7 @@
       <c r="H13">
         <v>563</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>226</v>
       </c>
       <c r="J13" s="1">
@@ -1408,7 +1406,7 @@
       <c r="H14">
         <v>1973</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>628</v>
       </c>
       <c r="J14" s="1">
@@ -1473,7 +1471,7 @@
       <c r="H15">
         <v>866</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>745</v>
       </c>
       <c r="J15" s="1">
@@ -1538,7 +1536,7 @@
       <c r="H16">
         <v>82</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>17</v>
       </c>
       <c r="J16" s="1">
@@ -1603,7 +1601,7 @@
       <c r="H17">
         <v>13</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" s="1">
@@ -1668,7 +1666,7 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" s="1">
@@ -1733,7 +1731,7 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" s="1">
@@ -1798,7 +1796,7 @@
       <c r="H20">
         <v>365</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>206</v>
       </c>
       <c r="J20" s="1">
@@ -1863,7 +1861,7 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="1">
@@ -1928,7 +1926,7 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" s="1">
@@ -1993,7 +1991,7 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" s="1">
@@ -2058,7 +2056,7 @@
       <c r="H24">
         <v>160</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>49</v>
       </c>
       <c r="J24" s="1">
@@ -2123,7 +2121,7 @@
       <c r="H25">
         <v>184</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>118</v>
       </c>
       <c r="J25" s="1">
@@ -2188,7 +2186,7 @@
       <c r="H26">
         <v>1287</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>788</v>
       </c>
       <c r="J26" s="1">
@@ -2253,7 +2251,7 @@
       <c r="H27">
         <v>102</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>95</v>
       </c>
       <c r="J27" s="1">
@@ -2293,263 +2291,263 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>5985</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1117</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>16</v>
       </c>
       <c r="F28" s="1">
         <v>7</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>656</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1651</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>182</v>
       </c>
       <c r="J28" s="1">
         <v>11</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>927</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>62</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>8</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>197</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>12</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>180</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>15</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>2</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>6</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
         <v>2068</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>17377</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>6517</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>19</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>50</v>
       </c>
       <c r="F29" s="1">
         <v>22</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1602</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>3307</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>495</v>
       </c>
       <c r="J29" s="1">
         <v>39</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>4950</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>339</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>24</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>711</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>63</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>1468</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>130</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>17</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>17</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>2</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>4197</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>15640</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>5151</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>32</v>
       </c>
       <c r="F30" s="1">
         <v>92</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1481</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>3487</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>337</v>
       </c>
       <c r="J30" s="1">
         <v>29</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>4060</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>214</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>15</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>578</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>55</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>1063</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>92</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>5</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>15</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>3</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>4194</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>6537</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>2948</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>4</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>14</v>
       </c>
       <c r="F31" s="1">
         <v>33</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>525</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>1506</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>41</v>
       </c>
       <c r="J31" s="1">
         <v>10</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>2627</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>42</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>14</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>131</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>33</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>289</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>60</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>2</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>5</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <v>3</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>1242</v>
       </c>
     </row>
@@ -2578,7 +2576,7 @@
       <c r="H32">
         <v>1136</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>21</v>
       </c>
       <c r="J32" s="1">
@@ -2643,7 +2641,7 @@
       <c r="H33">
         <v>993</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <v>799</v>
       </c>
       <c r="J33" s="1">
@@ -2708,7 +2706,7 @@
       <c r="H34">
         <v>100</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <v>91</v>
       </c>
       <c r="J34" s="1">
